--- a/Packet/PacketData/Battle.xlsx
+++ b/Packet/PacketData/Battle.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -63,6 +63,12 @@
   </si>
   <si>
     <t xml:space="preserve">DamageTypeEnemy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">u8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TargetType</t>
   </si>
   <si>
     <t xml:space="preserve">s32</t>
@@ -245,10 +251,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -303,10 +309,10 @@
         <v>6</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -314,10 +320,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -325,16 +331,27 @@
         <v>6</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C8" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="0" t="s">
         <v>16</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>

--- a/Packet/PacketData/Battle.xlsx
+++ b/Packet/PacketData/Battle.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="19">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -59,16 +59,16 @@
     <t xml:space="preserve">$ENUM$</t>
   </si>
   <si>
-    <t xml:space="preserve">DamageTypePlayer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DamageTypeEnemy</t>
+    <t xml:space="preserve">TargetType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Player</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enemy</t>
   </si>
   <si>
     <t xml:space="preserve">u8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TargetType</t>
   </si>
   <si>
     <t xml:space="preserve">s32</t>
@@ -254,7 +254,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -292,16 +292,22 @@
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="0" t="s">
         <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>13</v>
+      <c r="B5" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -309,10 +315,10 @@
         <v>6</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Packet/PacketData/Battle.xlsx
+++ b/Packet/PacketData/Battle.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="16">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -56,19 +56,10 @@
     <t xml:space="preserve">Damage</t>
   </si>
   <si>
-    <t xml:space="preserve">$ENUM$</t>
+    <t xml:space="preserve">u8</t>
   </si>
   <si>
     <t xml:space="preserve">TargetType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Player</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enemy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">u8</t>
   </si>
   <si>
     <t xml:space="preserve">s32</t>
@@ -251,10 +242,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -289,25 +280,25 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="C4" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
+      <c r="A5" s="0" t="s">
+        <v>6</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -315,10 +306,10 @@
         <v>6</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -326,32 +317,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Packet/PacketData/Battle.xlsx
+++ b/Packet/PacketData/Battle.xlsx
@@ -5,11 +5,10 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="攻撃" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="ダメージ" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="ダメージ" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,18 +20,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
   <si>
-    <t xml:space="preserve">PacketAttack</t>
+    <t xml:space="preserve">PacketDamage</t>
   </si>
   <si>
     <t xml:space="preserve">$PACKET_ID$</t>
   </si>
   <si>
-    <t xml:space="preserve">Attack</t>
+    <t xml:space="preserve">Damage</t>
   </si>
   <si>
     <t xml:space="preserve">$BASE_CLASS_NAME$</t>
@@ -44,22 +43,16 @@
     <t xml:space="preserve">$MEMBER$</t>
   </si>
   <si>
+    <t xml:space="preserve">u8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TargetType</t>
+  </si>
+  <si>
     <t xml:space="preserve">u32</t>
   </si>
   <si>
     <t xml:space="preserve">TargetUuid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PacketDamage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Damage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">u8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TargetType</t>
   </si>
   <si>
     <t xml:space="preserve">s32</t>
@@ -178,70 +171,6 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="12.83"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -260,7 +189,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -268,7 +197,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -284,10 +213,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -295,10 +224,10 @@
         <v>6</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -306,10 +235,10 @@
         <v>6</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -317,10 +246,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="0" t="s">
         <v>13</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Packet/PacketData/Battle.xlsx
+++ b/Packet/PacketData/Battle.xlsx
@@ -5,10 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ダメージ" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="回復" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="17">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -62,6 +63,15 @@
   </si>
   <si>
     <t xml:space="preserve">ResultHp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PacketHeal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HealValue</t>
   </si>
 </sst>
 </file>
@@ -173,7 +183,7 @@
   </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -261,4 +271,101 @@
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="12.83"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/Packet/PacketData/Battle.xlsx
+++ b/Packet/PacketData/Battle.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="ダメージ" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="23">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -50,21 +50,33 @@
     <t xml:space="preserve">TargetType</t>
   </si>
   <si>
+    <t xml:space="preserve">ターゲットタイプ</t>
+  </si>
+  <si>
     <t xml:space="preserve">u32</t>
   </si>
   <si>
     <t xml:space="preserve">TargetUuid</t>
   </si>
   <si>
+    <t xml:space="preserve">ターゲットのUUID</t>
+  </si>
+  <si>
     <t xml:space="preserve">s32</t>
   </si>
   <si>
     <t xml:space="preserve">DamageValue</t>
   </si>
   <si>
+    <t xml:space="preserve">ダメージ量</t>
+  </si>
+  <si>
     <t xml:space="preserve">ResultHp</t>
   </si>
   <si>
+    <t xml:space="preserve">ダメージ後のHP</t>
+  </si>
+  <si>
     <t xml:space="preserve">PacketHeal</t>
   </si>
   <si>
@@ -72,6 +84,12 @@
   </si>
   <si>
     <t xml:space="preserve">HealValue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">回復量</t>
+  </si>
+  <si>
+    <t xml:space="preserve">回復後のHP</t>
   </si>
 </sst>
 </file>
@@ -181,10 +199,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -228,16 +246,22 @@
       <c r="C4" s="0" t="s">
         <v>8</v>
       </c>
+      <c r="D4" s="0" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -245,10 +269,13 @@
         <v>6</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -256,10 +283,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -278,10 +308,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -296,7 +326,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -304,7 +334,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -325,16 +355,22 @@
       <c r="C4" s="0" t="s">
         <v>8</v>
       </c>
+      <c r="D4" s="0" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -342,10 +378,13 @@
         <v>6</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -353,10 +392,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
